--- a/finaloutput.xlsx
+++ b/finaloutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>中正區</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +112,12 @@
       <color rgb="FFD19A66"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -439,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -859,6 +870,107 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
